--- a/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{033FEF7C-2A31-4A56-984F-CDEE539ACF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1B8DB0-EE63-484D-A4A3-7DF8B93A5B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4994CEFA-8CFE-469E-B1D8-7DB6BD76EE36}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7FE494F5-4AC5-4430-82D6-E3B612910BFA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,93 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>95,33%</t>
   </si>
   <si>
@@ -101,9 +182,6 @@
     <t>96,3%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>4,67%</t>
   </si>
   <si>
@@ -131,58 +209,55 @@
     <t>13,2%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -236,81 +311,6 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
     <t>92,73%</t>
   </si>
   <si>
@@ -368,6 +368,66 @@
     <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
     <t>98,33%</t>
   </si>
   <si>
@@ -404,46 +464,58 @@
     <t>5,71%</t>
   </si>
   <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>98,12%</t>
@@ -494,78 +566,6 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
     <t>96,16%</t>
   </si>
   <si>
@@ -617,6 +617,48 @@
     <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
     <t>86,92%</t>
   </si>
   <si>
@@ -641,34 +683,46 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>91,23%</t>
@@ -686,9 +740,6 @@
     <t>88,83%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
     <t>88,27%</t>
   </si>
   <si>
@@ -710,63 +761,12 @@
     <t>11,17%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
     <t>2,03%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
     <t>94,96%</t>
   </si>
   <si>
@@ -818,6 +818,36 @@
     <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
     <t>95,5%</t>
   </si>
   <si>
@@ -860,34 +890,46 @@
     <t>7,67%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>96,31%</t>
@@ -930,48 +972,6 @@
   </si>
   <si>
     <t>8,65%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
   </si>
   <si>
     <t>96,69%</t>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B7BC7B-D885-4AC3-B05E-697B67870E16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDAB827-1757-4703-94C0-80F769B17168}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1529,10 +1529,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>39378</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1544,85 +1544,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>37389</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14481</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>119</v>
-      </c>
-      <c r="N4" s="7">
-        <v>76766</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1928</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4258</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6186</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1631,54 +1631,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1690,13 +1690,13 @@
         <v>22476</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -1705,13 +1705,13 @@
         <v>21776</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>68</v>
@@ -1720,19 +1720,19 @@
         <v>44251</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1741,13 +1741,13 @@
         <v>1411</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1756,13 +1756,13 @@
         <v>1348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1771,13 +1771,13 @@
         <v>2760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,13 +1792,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1807,13 +1807,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1822,117 +1822,117 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>34506</v>
+        <v>39378</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>24989</v>
+        <v>37389</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="N10" s="7">
-        <v>59495</v>
+        <v>76766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>4311</v>
+        <v>1928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>688</v>
+        <v>4258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>4999</v>
+        <v>6186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,150 +1941,150 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>4787</v>
+        <v>32309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>9694</v>
+        <v>24183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>14481</v>
+        <v>56490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2814</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>981</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3796</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>72</v>
@@ -2096,49 +2096,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,7 +2152,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="7">
-        <v>32309</v>
+        <v>34506</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -2164,10 +2164,10 @@
         <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>24183</v>
+        <v>24989</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>77</v>
@@ -2176,13 +2176,13 @@
         <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N16" s="7">
-        <v>56490</v>
+        <v>59495</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>79</v>
@@ -2197,13 +2197,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>2814</v>
+        <v>4311</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>82</v>
@@ -2215,25 +2215,25 @@
         <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>981</v>
+        <v>688</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>86</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>3796</v>
+        <v>4999</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>87</v>
@@ -2251,49 +2251,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,7 +2352,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>15</v>
@@ -2412,13 +2412,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2427,13 +2427,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2442,13 +2442,13 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2469,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64D82B5-BAB5-41DE-AB8A-019182EAE346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC448789-3BD7-4FFE-8E26-284FB494D342}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2587,100 +2587,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>39645</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6234</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="7">
-        <v>61</v>
-      </c>
-      <c r="I4" s="7">
-        <v>40277</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8885</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="7">
-        <v>116</v>
-      </c>
-      <c r="N4" s="7">
-        <v>79922</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1422</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,54 +2689,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>41024</v>
+        <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="N6" s="7">
-        <v>81344</v>
+        <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2748,13 @@
         <v>29167</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -2763,13 +2763,13 @@
         <v>25212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2778,19 +2778,19 @@
         <v>54380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2799,13 +2799,13 @@
         <v>2605</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2814,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2829,13 +2829,13 @@
         <v>2605</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2850,13 @@
         <v>31772</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2865,13 +2865,13 @@
         <v>25212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -2880,117 +2880,117 @@
         <v>56985</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D10" s="7">
-        <v>46342</v>
+        <v>39645</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>39633</v>
+        <v>40277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N10" s="7">
-        <v>85975</v>
+        <v>79922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>887</v>
+        <v>675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>2153</v>
+        <v>747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>3040</v>
+        <v>1422</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,153 +2999,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>47229</v>
+        <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>41786</v>
+        <v>41024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" s="7">
-        <v>89015</v>
+        <v>81344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>34092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I13" s="7">
-        <v>6234</v>
+        <v>29300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N13" s="7">
-        <v>8885</v>
+        <v>63391</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="7">
+        <v>6</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3664</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>155</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>5567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,49 +3154,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>35994</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I15" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="N15" s="7">
-        <v>8885</v>
+        <v>68958</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,76 +3207,76 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7">
+        <v>46342</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>53</v>
       </c>
-      <c r="D16" s="7">
-        <v>34092</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="7">
-        <v>47</v>
-      </c>
       <c r="I16" s="7">
-        <v>29300</v>
+        <v>39633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N16" s="7">
-        <v>63391</v>
+        <v>85975</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1902</v>
+        <v>887</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>168</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>3664</v>
+        <v>2153</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>169</v>
@@ -3288,10 +3288,10 @@
         <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>5567</v>
+        <v>3040</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>172</v>
@@ -3309,49 +3309,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>63</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47229</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>56</v>
       </c>
-      <c r="D18" s="7">
-        <v>35994</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>53</v>
-      </c>
       <c r="I18" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N18" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,7 +3374,7 @@
         <v>176</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="H19" s="7">
         <v>202</v>
@@ -3410,7 +3410,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -3422,7 +3422,7 @@
         <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>184</v>
@@ -3470,13 +3470,13 @@
         <v>157966</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>212</v>
@@ -3485,13 +3485,13 @@
         <v>147221</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>434</v>
@@ -3500,13 +3500,13 @@
         <v>305187</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3527,7 +3527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D946F727-F020-4C26-A708-1F33D2F1D1EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41D67CF-D6FB-4BED-93F0-3CF7BE4088E3}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3645,70 +3645,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>39737</v>
+        <v>3510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>9989</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="7">
-        <v>128</v>
-      </c>
-      <c r="N4" s="7">
-        <v>82436</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3717,28 +3717,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3747,54 +3747,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3806,13 +3806,13 @@
         <v>19990</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -3821,13 +3821,13 @@
         <v>17880</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>53</v>
@@ -3836,19 +3836,19 @@
         <v>37870</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3857,13 +3857,13 @@
         <v>677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3872,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3887,13 +3887,13 @@
         <v>677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3908,13 @@
         <v>20667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -3923,13 +3923,13 @@
         <v>17880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -3938,117 +3938,117 @@
         <v>38547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>27502</v>
+        <v>39737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I10" s="7">
-        <v>32083</v>
+        <v>42699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="N10" s="7">
-        <v>59585</v>
+        <v>82436</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2644</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>3349</v>
+        <v>1410</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,153 +4057,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D12" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I12" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N12" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>3510</v>
+        <v>26327</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>6479</v>
+        <v>25940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="N13" s="7">
-        <v>9989</v>
+        <v>52267</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>3154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4212,49 +4212,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,25 +4265,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>26327</v>
+        <v>27502</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
       </c>
       <c r="I16" s="7">
-        <v>25940</v>
+        <v>32083</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>231</v>
@@ -4292,55 +4292,55 @@
         <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>81</v>
+      </c>
+      <c r="N16" s="7">
+        <v>59585</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M16" s="7">
-        <v>85</v>
-      </c>
-      <c r="N16" s="7">
-        <v>52267</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1479</v>
+        <v>2644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1675</v>
+        <v>705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>239</v>
@@ -4349,13 +4349,13 @@
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>3154</v>
+        <v>3349</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>241</v>
@@ -4367,49 +4367,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>42</v>
+      </c>
+      <c r="D18" s="7">
+        <v>30146</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>44</v>
       </c>
-      <c r="D18" s="7">
-        <v>27806</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>46</v>
-      </c>
       <c r="I18" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N18" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>242147</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>248</v>
@@ -4468,7 +4468,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -4507,7 +4507,7 @@
         <v>8590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>256</v>
@@ -4528,13 +4528,13 @@
         <v>123276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>192</v>
@@ -4543,13 +4543,13 @@
         <v>127461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -4558,13 +4558,13 @@
         <v>250737</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4585,7 +4585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF5F01E-338D-46D6-9DF7-7B4B5B3ADA35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599B7F05-72CB-419E-81F3-7F1C7B19939E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4703,100 +4703,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>58108</v>
+        <v>4167</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>39345</v>
+        <v>6212</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>97454</v>
+        <v>10378</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>2737</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>828</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>195</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>3564</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,54 +4805,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4864,13 +4864,13 @@
         <v>20682</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -4879,13 +4879,13 @@
         <v>19323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>64</v>
@@ -4894,19 +4894,19 @@
         <v>40005</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -4915,13 +4915,13 @@
         <v>922</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4945,13 +4945,13 @@
         <v>922</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4966,13 @@
         <v>21604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -4981,13 +4981,13 @@
         <v>19323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -4996,117 +4996,117 @@
         <v>40927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7">
-        <v>31229</v>
+        <v>58108</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7">
-        <v>30026</v>
+        <v>39345</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>285</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>61256</v>
+        <v>97454</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>1198</v>
+        <v>2737</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>783</v>
+        <v>828</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>1981</v>
+        <v>3564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,153 +5115,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D12" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>63237</v>
+        <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>4167</v>
+        <v>52636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>152</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
+        <v>71</v>
+      </c>
+      <c r="I13" s="7">
+        <v>56681</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="7">
-        <v>6212</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="N13" s="7">
-        <v>10378</v>
+        <v>109317</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2071</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,49 +5270,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>4167</v>
+        <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I15" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N15" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,10 +5323,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>52636</v>
+        <v>31229</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>297</v>
@@ -5335,13 +5335,13 @@
         <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>56681</v>
+        <v>30026</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>299</v>
@@ -5350,13 +5350,13 @@
         <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>109317</v>
+        <v>61256</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>301</v>
@@ -5371,34 +5371,34 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>858</v>
+        <v>1198</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>305</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1214</v>
+        <v>783</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>307</v>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2071</v>
+        <v>1981</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>308</v>
@@ -5425,49 +5425,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>53494</v>
+        <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N18" s="7">
-        <v>111388</v>
+        <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,7 +5526,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -5586,13 +5586,13 @@
         <v>172537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>226</v>
@@ -5601,13 +5601,13 @@
         <v>154412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -5616,13 +5616,13 @@
         <v>326948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD1B8DB0-EE63-484D-A4A3-7DF8B93A5B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0132584B-1340-413F-9947-291279AC3C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7FE494F5-4AC5-4430-82D6-E3B612910BFA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22B3283F-84B9-49F8-918A-F4E340205EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="318">
   <si>
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -71,6 +71,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -89,76 +107,85 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>79,53%</t>
+    <t>79,57%</t>
   </si>
   <si>
     <t>94,17%</t>
   </si>
   <si>
-    <t>82,5%</t>
+    <t>81,45%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>87,26%</t>
+    <t>87,41%</t>
   </si>
   <si>
     <t>98,51%</t>
@@ -167,859 +194,805 @@
     <t>89,78%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>81,98%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>97,94%</t>
   </si>
   <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>88,58%</t>
+    <t>86,7%</t>
   </si>
   <si>
     <t>97,46%</t>
   </si>
   <si>
-    <t>86,82%</t>
+    <t>83,49%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>93,31%</t>
   </si>
   <si>
     <t>98,17%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1003,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1126,39 +1099,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1210,7 +1183,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1321,13 +1294,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1336,6 +1302,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1400,19 +1373,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDAB827-1757-4703-94C0-80F769B17168}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D458AC51-BF3D-4203-967B-04068EE40865}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1529,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1544,34 +1537,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,10 +1573,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1595,34 +1588,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1637,13 +1630,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1652,13 +1645,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1667,13 +1660,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,40 +1677,40 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>22476</v>
+        <v>1411</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>21776</v>
+        <v>1348</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M7" s="7">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>44251</v>
+        <v>2760</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
@@ -1735,40 +1728,40 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>1411</v>
+        <v>22476</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>1348</v>
+        <v>21776</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="N8" s="7">
-        <v>2760</v>
+        <v>44251</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>34</v>
@@ -1792,13 +1785,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1807,13 +1800,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1822,13 +1815,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>39378</v>
+        <v>1928</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>38</v>
@@ -1854,10 +1847,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>37389</v>
+        <v>4258</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>41</v>
@@ -1869,10 +1862,10 @@
         <v>43</v>
       </c>
       <c r="M10" s="7">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>76766</v>
+        <v>6186</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>44</v>
@@ -1890,10 +1883,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>1928</v>
+        <v>39378</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>47</v>
@@ -1905,10 +1898,10 @@
         <v>49</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7">
-        <v>4258</v>
+        <v>37389</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>50</v>
@@ -1920,10 +1913,10 @@
         <v>52</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="N11" s="7">
-        <v>6186</v>
+        <v>76766</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>53</v>
@@ -1947,13 +1940,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -1962,13 +1955,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -1977,13 +1970,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1994,10 +1987,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>32309</v>
+        <v>2814</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>57</v>
@@ -2009,25 +2002,25 @@
         <v>59</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>24183</v>
+        <v>981</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M13" s="7">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>56490</v>
+        <v>3796</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>62</v>
@@ -2045,10 +2038,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>2814</v>
+        <v>32309</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>65</v>
@@ -2060,25 +2053,25 @@
         <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>981</v>
+        <v>24183</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>3796</v>
+        <v>56490</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>70</v>
@@ -2102,13 +2095,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -2117,13 +2110,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -2132,13 +2125,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>34506</v>
+        <v>4311</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>74</v>
@@ -2164,25 +2157,25 @@
         <v>76</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>24989</v>
+        <v>688</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>59495</v>
+        <v>4999</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>79</v>
@@ -2200,10 +2193,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D17" s="7">
-        <v>4311</v>
+        <v>34506</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>82</v>
@@ -2215,25 +2208,25 @@
         <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="I17" s="7">
-        <v>688</v>
+        <v>24989</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>4999</v>
+        <v>59495</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>87</v>
@@ -2257,13 +2250,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -2272,13 +2265,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -2287,13 +2280,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,10 +2297,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D19" s="7">
-        <v>133454</v>
+        <v>10465</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>90</v>
@@ -2319,34 +2312,34 @@
         <v>92</v>
       </c>
       <c r="H19" s="7">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>118030</v>
+        <v>7275</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>27</v>
+      </c>
+      <c r="N19" s="7">
+        <v>17740</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="7">
-        <v>378</v>
-      </c>
-      <c r="N19" s="7">
-        <v>251484</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,49 +2348,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="D20" s="7">
-        <v>10465</v>
+        <v>133454</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>178</v>
+      </c>
+      <c r="I20" s="7">
+        <v>118030</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="7">
-        <v>12</v>
-      </c>
-      <c r="I20" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="7">
+        <v>378</v>
+      </c>
+      <c r="N20" s="7">
+        <v>251484</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>27</v>
-      </c>
-      <c r="N20" s="7">
-        <v>17740</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2405,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2427,13 +2420,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2442,13 +2435,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2469,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC448789-3BD7-4FFE-8E26-284FB494D342}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AF6B1-C631-4E68-BF4A-7F0A81382A54}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2486,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2587,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6234</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>8885</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,49 +2636,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6234</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>8885</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2693,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2710,13 +2708,13 @@
         <v>6234</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -2725,13 +2723,13 @@
         <v>8885</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>29167</v>
+        <v>2605</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>25212</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2605</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="7">
-        <v>75</v>
-      </c>
-      <c r="N7" s="7">
-        <v>54380</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,49 +2791,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>2605</v>
+        <v>29167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>25212</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="7">
+        <v>75</v>
+      </c>
+      <c r="N8" s="7">
+        <v>54380</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>2605</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2848,13 @@
         <v>31772</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -2865,13 +2863,13 @@
         <v>25212</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>78</v>
@@ -2880,13 +2878,13 @@
         <v>56985</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>39645</v>
+        <v>675</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>747</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1422</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7">
-        <v>61</v>
-      </c>
-      <c r="I10" s="7">
-        <v>40277</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>116</v>
-      </c>
-      <c r="N10" s="7">
-        <v>79922</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,49 +2946,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7">
-        <v>675</v>
+        <v>39645</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7">
+        <v>61</v>
+      </c>
+      <c r="I11" s="7">
+        <v>40277</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>116</v>
+      </c>
+      <c r="N11" s="7">
+        <v>79922</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>747</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1422</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3003,13 @@
         <v>40320</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -3020,13 +3018,13 @@
         <v>41024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>118</v>
@@ -3035,13 +3033,13 @@
         <v>81344</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>34092</v>
+        <v>1902</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3664</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5567</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="7">
-        <v>47</v>
-      </c>
-      <c r="I13" s="7">
-        <v>29300</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M13" s="7">
-        <v>100</v>
-      </c>
-      <c r="N13" s="7">
-        <v>63391</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,49 +3101,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>1902</v>
+        <v>34092</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="7">
+        <v>47</v>
+      </c>
+      <c r="I14" s="7">
+        <v>29300</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="7">
+        <v>100</v>
+      </c>
+      <c r="N14" s="7">
+        <v>63391</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3664</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5567</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3158,13 @@
         <v>35994</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>53</v>
@@ -3175,13 +3173,13 @@
         <v>32964</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>109</v>
@@ -3190,13 +3188,13 @@
         <v>68958</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,49 +3205,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>46342</v>
+        <v>887</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2153</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3040</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>53</v>
-      </c>
-      <c r="I16" s="7">
-        <v>39633</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M16" s="7">
-        <v>115</v>
-      </c>
-      <c r="N16" s="7">
-        <v>85975</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,49 +3256,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>887</v>
+        <v>46342</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="7">
+        <v>53</v>
+      </c>
+      <c r="I17" s="7">
+        <v>39633</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="7">
+        <v>115</v>
+      </c>
+      <c r="N17" s="7">
+        <v>85975</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2153</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>3040</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3313,13 @@
         <v>47229</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -3330,13 +3328,13 @@
         <v>41786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>119</v>
@@ -3345,13 +3343,13 @@
         <v>89015</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,49 +3360,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>151896</v>
+        <v>6070</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6564</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" s="7">
+        <v>18</v>
+      </c>
+      <c r="N19" s="7">
+        <v>12634</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="7">
-        <v>202</v>
-      </c>
-      <c r="I19" s="7">
-        <v>140657</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" s="7">
-        <v>416</v>
-      </c>
-      <c r="N19" s="7">
-        <v>292553</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,49 +3411,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="D20" s="7">
-        <v>6070</v>
+        <v>151896</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="7">
+        <v>202</v>
+      </c>
+      <c r="I20" s="7">
+        <v>140657</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" s="7">
+        <v>416</v>
+      </c>
+      <c r="N20" s="7">
+        <v>292553</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="7">
-        <v>10</v>
-      </c>
-      <c r="I20" s="7">
-        <v>6564</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="7">
-        <v>18</v>
-      </c>
-      <c r="N20" s="7">
-        <v>12634</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3468,13 @@
         <v>157966</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>212</v>
@@ -3485,13 +3483,13 @@
         <v>147221</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>434</v>
@@ -3500,13 +3498,18 @@
         <v>305187</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3527,8 +3530,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41D67CF-D6FB-4BED-93F0-3CF7BE4088E3}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD296FB-EB8A-4CB0-88D0-05DF414760ED}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3544,7 +3547,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3645,49 +3648,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3510</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6479</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>9989</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,49 +3699,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3510</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6479</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>9989</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3756,13 @@
         <v>3510</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -3768,13 +3771,13 @@
         <v>6479</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
@@ -3783,13 +3786,13 @@
         <v>9989</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,49 +3803,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>19990</v>
+        <v>677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>17880</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>37870</v>
+        <v>677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,49 +3854,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7">
-        <v>677</v>
+        <v>19990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>17880</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N8" s="7">
-        <v>677</v>
+        <v>37870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3911,13 @@
         <v>20667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -3923,13 +3926,13 @@
         <v>17880</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>54</v>
@@ -3938,13 +3941,13 @@
         <v>38547</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,49 +3958,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>39737</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>42699</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>82436</v>
+        <v>1410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,49 +4009,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="D11" s="7">
-        <v>1410</v>
+        <v>39737</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>42699</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="N11" s="7">
-        <v>1410</v>
+        <v>82436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4066,13 @@
         <v>41147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>69</v>
@@ -4078,13 +4081,13 @@
         <v>42699</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -4093,13 +4096,13 @@
         <v>83846</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4113,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>26327</v>
+        <v>1479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>25940</v>
+        <v>1675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>52267</v>
+        <v>3154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,49 +4164,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>1479</v>
+        <v>26327</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="I14" s="7">
-        <v>1675</v>
+        <v>25940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N14" s="7">
-        <v>3154</v>
+        <v>52267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4221,13 @@
         <v>27806</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>46</v>
@@ -4233,13 +4236,13 @@
         <v>27615</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>90</v>
@@ -4248,13 +4251,13 @@
         <v>55421</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,49 +4268,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>27502</v>
+        <v>2644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>32083</v>
+        <v>705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>59585</v>
+        <v>3349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,49 +4319,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>2644</v>
+        <v>27502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>705</v>
+        <v>32083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>3349</v>
+        <v>59585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4376,13 @@
         <v>30146</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -4388,13 +4391,13 @@
         <v>32788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -4403,13 +4406,13 @@
         <v>62934</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,49 +4423,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>117066</v>
+        <v>6210</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2380</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M19" s="7">
+        <v>13</v>
+      </c>
+      <c r="N19" s="7">
+        <v>8590</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H19" s="7">
-        <v>188</v>
-      </c>
-      <c r="I19" s="7">
-        <v>125081</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M19" s="7">
-        <v>358</v>
-      </c>
-      <c r="N19" s="7">
-        <v>242147</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,49 +4474,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="D20" s="7">
-        <v>6210</v>
+        <v>117066</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="7">
+        <v>188</v>
+      </c>
+      <c r="I20" s="7">
+        <v>125081</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" s="7">
+        <v>358</v>
+      </c>
+      <c r="N20" s="7">
+        <v>242147</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2380</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M20" s="7">
-        <v>13</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8590</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4531,13 @@
         <v>123276</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>192</v>
@@ -4543,13 +4546,13 @@
         <v>127461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -4558,13 +4561,18 @@
         <v>250737</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4585,8 +4593,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599B7F05-72CB-419E-81F3-7F1C7B19939E}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845BA4E9-08EF-4F77-94ED-EA34BF0D2CAE}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4602,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4703,49 +4711,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4167</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>6212</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>10378</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,49 +4762,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>6212</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10378</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4819,13 @@
         <v>4167</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4826,13 +4834,13 @@
         <v>6212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -4841,13 +4849,13 @@
         <v>10378</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,49 +4866,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>20682</v>
+        <v>922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>19323</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>40005</v>
+        <v>922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,49 +4917,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>922</v>
+        <v>20682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>19323</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="N8" s="7">
-        <v>922</v>
+        <v>40005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4974,13 @@
         <v>21604</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>33</v>
@@ -4981,13 +4989,13 @@
         <v>19323</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -4996,13 +5004,13 @@
         <v>40927</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5021,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>58108</v>
+        <v>2737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>39345</v>
+        <v>828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>97454</v>
+        <v>3564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5072,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D11" s="7">
-        <v>2737</v>
+        <v>58108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="I11" s="7">
-        <v>828</v>
+        <v>39345</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>234</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="N11" s="7">
-        <v>3564</v>
+        <v>97454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5129,13 @@
         <v>60845</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>62</v>
@@ -5136,13 +5144,13 @@
         <v>40173</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>153</v>
@@ -5151,13 +5159,13 @@
         <v>101018</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,49 +5176,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>52636</v>
+        <v>858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1214</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>71</v>
-      </c>
-      <c r="I13" s="7">
-        <v>56681</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>286</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
-        <v>144</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>109317</v>
+        <v>2071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,49 +5227,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D14" s="7">
-        <v>858</v>
+        <v>52636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>291</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="I14" s="7">
-        <v>1214</v>
+        <v>56681</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
-      </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>144</v>
       </c>
       <c r="N14" s="7">
-        <v>2071</v>
+        <v>109317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5284,13 @@
         <v>53494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -5291,13 +5299,13 @@
         <v>57895</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>147</v>
@@ -5306,13 +5314,13 @@
         <v>111388</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5331,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>31229</v>
+        <v>1198</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>783</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>30026</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>300</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>61256</v>
+        <v>1981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5382,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>1198</v>
+        <v>31229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>305</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I17" s="7">
-        <v>783</v>
+        <v>30026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>307</v>
-      </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>1981</v>
+        <v>61256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5439,13 @@
         <v>32427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -5446,13 +5454,13 @@
         <v>30809</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>93</v>
@@ -5461,13 +5469,13 @@
         <v>63237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,49 +5486,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>166822</v>
+        <v>5715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>28</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>151587</v>
+        <v>2825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
-        <v>463</v>
+        <v>13</v>
       </c>
       <c r="N19" s="7">
-        <v>318409</v>
+        <v>8539</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +5537,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>241</v>
       </c>
       <c r="D20" s="7">
-        <v>5715</v>
+        <v>166822</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="I20" s="7">
-        <v>2825</v>
+        <v>151587</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>463</v>
       </c>
       <c r="N20" s="7">
-        <v>8539</v>
+        <v>318409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5594,13 @@
         <v>172537</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>226</v>
@@ -5601,13 +5609,13 @@
         <v>154412</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>476</v>
@@ -5616,13 +5624,18 @@
         <v>326948</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0132584B-1340-413F-9947-291279AC3C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC90F51-41DA-4384-AB15-522D414DD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22B3283F-84B9-49F8-918A-F4E340205EF7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D0A5F9B-2B6D-427F-BC04-A29F5DAFE37C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="332">
   <si>
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,52 +107,52 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>20,43%</t>
+    <t>18,25%</t>
   </si>
   <si>
     <t>5,83%</t>
   </si>
   <si>
-    <t>18,55%</t>
+    <t>17,98%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>94,09%</t>
   </si>
   <si>
-    <t>79,57%</t>
+    <t>81,75%</t>
   </si>
   <si>
     <t>94,17%</t>
   </si>
   <si>
-    <t>81,45%</t>
+    <t>82,02%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,67%</t>
@@ -161,31 +161,31 @@
     <t>1,49%</t>
   </si>
   <si>
-    <t>12,59%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>95,33%</t>
   </si>
   <si>
-    <t>87,41%</t>
+    <t>87,49%</t>
   </si>
   <si>
     <t>98,51%</t>
@@ -194,805 +194,847 @@
     <t>89,78%</t>
   </si>
   <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,11%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>98,67%</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D458AC51-BF3D-4203-967B-04068EE40865}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6598C6D-E83E-499D-8329-CB174B44A1AC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2321,10 +2363,10 @@
         <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -2333,13 +2375,13 @@
         <v>17740</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2396,13 @@
         <v>133454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -2369,13 +2411,13 @@
         <v>118030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>378</v>
@@ -2384,13 +2426,13 @@
         <v>251484</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2488,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734AF6B1-C631-4E68-BF4A-7F0A81382A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEC01FB-EE4B-4AD3-BB59-09CD42C85144}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,7 +2526,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2597,7 +2639,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2612,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2627,7 +2669,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2660,7 +2702,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2675,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2746,13 +2788,13 @@
         <v>2605</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2767,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -2776,13 +2818,13 @@
         <v>2605</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2839,13 @@
         <v>29167</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -2815,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2827,13 +2869,13 @@
         <v>54380</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2943,13 @@
         <v>675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2916,13 +2958,13 @@
         <v>747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2931,13 +2973,13 @@
         <v>1422</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,10 +2994,10 @@
         <v>39645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2967,10 +3009,10 @@
         <v>40277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2982,10 +3024,10 @@
         <v>79922</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3056,13 +3098,13 @@
         <v>1902</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3071,13 +3113,13 @@
         <v>3664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3086,13 +3128,13 @@
         <v>5567</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3149,13 @@
         <v>34092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -3122,13 +3164,13 @@
         <v>29300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -3137,13 +3179,13 @@
         <v>63391</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3253,13 @@
         <v>887</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -3226,13 +3268,13 @@
         <v>2153</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -3241,13 +3283,13 @@
         <v>3040</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,10 +3304,10 @@
         <v>46342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3277,13 +3319,13 @@
         <v>39633</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -3292,13 +3334,13 @@
         <v>85975</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3408,13 @@
         <v>6070</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H19" s="7">
         <v>10</v>
@@ -3381,13 +3423,13 @@
         <v>6564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -3396,13 +3438,13 @@
         <v>12634</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3459,13 @@
         <v>151896</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -3432,13 +3474,13 @@
         <v>140657</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M20" s="7">
         <v>416</v>
@@ -3447,13 +3489,13 @@
         <v>292553</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3551,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD296FB-EB8A-4CB0-88D0-05DF414760ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7589A8-7035-45FA-8911-CE14DA575B36}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3547,7 +3589,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3660,7 +3702,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3675,7 +3717,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3690,7 +3732,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,7 +3750,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3723,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3738,7 +3780,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3809,13 +3851,13 @@
         <v>677</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3830,7 +3872,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3839,13 +3881,13 @@
         <v>677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,10 +3902,10 @@
         <v>19990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -3878,7 +3920,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3890,10 +3932,10 @@
         <v>37870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3964,13 +4006,13 @@
         <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3985,7 +4027,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -3994,13 +4036,13 @@
         <v>1410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4015,10 +4057,10 @@
         <v>39737</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -4033,7 +4075,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4045,10 +4087,10 @@
         <v>82436</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -4119,13 +4161,13 @@
         <v>1479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4134,13 +4176,13 @@
         <v>1675</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4149,13 +4191,13 @@
         <v>3154</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,10 +4212,10 @@
         <v>26327</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -4185,13 +4227,13 @@
         <v>25940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -4200,13 +4242,13 @@
         <v>52267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4316,13 @@
         <v>2644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4289,13 +4331,13 @@
         <v>705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -4304,13 +4346,13 @@
         <v>3349</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4367,13 @@
         <v>27502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4340,10 +4382,10 @@
         <v>32083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -4355,13 +4397,13 @@
         <v>59585</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4471,13 @@
         <v>6210</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -4444,13 +4486,13 @@
         <v>2380</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4459,13 +4501,13 @@
         <v>8590</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4522,13 @@
         <v>117066</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -4495,13 +4537,13 @@
         <v>125081</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="M20" s="7">
         <v>358</v>
@@ -4510,13 +4552,13 @@
         <v>242147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4614,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845BA4E9-08EF-4F77-94ED-EA34BF0D2CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9609962-0B1A-4DBD-9B0F-5AE0D8140370}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4610,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4723,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4738,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4771,7 +4813,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4786,7 +4828,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4872,13 +4914,13 @@
         <v>922</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4893,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4902,13 +4944,13 @@
         <v>922</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,10 +4965,10 @@
         <v>20682</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -4941,7 +4983,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4953,10 +4995,10 @@
         <v>40005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -5027,13 +5069,13 @@
         <v>2737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5042,13 +5084,13 @@
         <v>828</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -5057,13 +5099,13 @@
         <v>3564</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5120,13 @@
         <v>58108</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>61</v>
@@ -5093,10 +5135,10 @@
         <v>39345</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -5108,13 +5150,13 @@
         <v>97454</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5224,13 @@
         <v>858</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5197,13 +5239,13 @@
         <v>1214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -5212,13 +5254,13 @@
         <v>2071</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,10 +5275,10 @@
         <v>52636</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -5248,10 +5290,10 @@
         <v>56681</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -5263,13 +5305,13 @@
         <v>109317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5379,13 @@
         <v>1198</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5352,13 +5394,13 @@
         <v>783</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5367,13 +5409,13 @@
         <v>1981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,10 +5430,10 @@
         <v>31229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -5403,10 +5445,10 @@
         <v>30026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -5418,13 +5460,13 @@
         <v>61256</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5534,13 @@
         <v>5715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5507,13 +5549,13 @@
         <v>2825</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -5522,13 +5564,13 @@
         <v>8539</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5585,13 @@
         <v>166822</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -5558,13 +5600,13 @@
         <v>151587</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>463</v>
@@ -5573,13 +5615,13 @@
         <v>318409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,7 +5677,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEC90F51-41DA-4384-AB15-522D414DD098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E73A286A-DA8B-4D9A-AD74-F071C947F041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D0A5F9B-2B6D-427F-BC04-A29F5DAFE37C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{16F16EE3-04E2-4D6F-A634-E97AAEC02232}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="305">
   <si>
     <t>Menores según si ha consumido recostituyentes en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,973 +68,892 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>4,11%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2012 (Tasa respuesta: 20,68%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>97,87%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2016 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
   </si>
   <si>
     <t>3,69%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>11,8%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>96,31%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>88,2%</t>
   </si>
   <si>
     <t>96,87%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
 </sst>
 </file>
@@ -1446,8 +1365,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6598C6D-E83E-499D-8329-CB174B44A1AC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F471BD4-B4C3-42D6-9F66-6FFEBE22772A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1564,10 +1483,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1348</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1579,85 +1498,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1411</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>31470</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>27263</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>58732</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,153 +1585,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>1411</v>
+        <v>4258</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1348</v>
+        <v>1928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>2760</v>
+        <v>6186</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>22476</v>
+        <v>37389</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>21776</v>
+        <v>39378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="N8" s="7">
-        <v>44251</v>
+        <v>76766</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1821,153 +1740,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1928</v>
+        <v>981</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>4258</v>
+        <v>2814</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>6186</v>
+        <v>3796</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7">
+        <v>24183</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7">
+        <v>50</v>
+      </c>
+      <c r="I11" s="7">
+        <v>32309</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="7">
-        <v>39378</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="K11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="7">
-        <v>37389</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>76766</v>
+        <v>56490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,153 +1895,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2814</v>
+        <v>688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>981</v>
+        <v>4311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>3796</v>
+        <v>4999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7">
+        <v>24989</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7">
         <v>50</v>
       </c>
-      <c r="D14" s="7">
-        <v>32309</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="7">
-        <v>40</v>
-      </c>
       <c r="I14" s="7">
-        <v>24183</v>
+        <v>34506</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="N14" s="7">
-        <v>56490</v>
+        <v>59495</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,153 +2050,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>4311</v>
+        <v>7275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>688</v>
+        <v>10465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>4999</v>
+        <v>17740</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="D17" s="7">
-        <v>34506</v>
+        <v>118030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="I17" s="7">
-        <v>24989</v>
+        <v>133454</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="N17" s="7">
-        <v>59495</v>
+        <v>251484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,217 +2205,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>15</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10465</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M19" s="7">
-        <v>27</v>
-      </c>
-      <c r="N19" s="7">
-        <v>17740</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>200</v>
-      </c>
-      <c r="D20" s="7">
-        <v>133454</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="A19" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="7">
-        <v>178</v>
-      </c>
-      <c r="I20" s="7">
-        <v>118030</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>378</v>
-      </c>
-      <c r="N20" s="7">
-        <v>251484</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2509,8 +2272,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEC01FB-EE4B-4AD3-BB59-09CD42C85144}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA3D562-EA5B-460B-A9FB-37C652F08237}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2526,7 +2289,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2633,94 +2396,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2605</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>2605</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7">
+        <v>44</v>
+      </c>
+      <c r="I5" s="7">
+        <v>31819</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6234</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>85</v>
+      </c>
+      <c r="N5" s="7">
+        <v>63265</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8885</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2729,99 +2492,99 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I6" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N6" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2605</v>
+        <v>747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2605</v>
+        <v>1422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>122</v>
@@ -2830,13 +2593,13 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>29167</v>
+        <v>40277</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>123</v>
@@ -2845,28 +2608,28 @@
         <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="7">
+        <v>55</v>
+      </c>
+      <c r="I8" s="7">
+        <v>39645</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="H8" s="7">
-        <v>34</v>
-      </c>
-      <c r="I8" s="7">
-        <v>25212</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="N8" s="7">
-        <v>54380</v>
+        <v>79922</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>127</v>
@@ -2875,7 +2638,7 @@
         <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,153 +2647,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>31772</v>
+        <v>41024</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I9" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="N9" s="7">
-        <v>56985</v>
+        <v>81344</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>675</v>
+        <v>3664</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>131</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>747</v>
+        <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>132</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>1422</v>
+        <v>5567</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>39645</v>
+        <v>29300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>40277</v>
+        <v>34092</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="N11" s="7">
-        <v>79922</v>
+        <v>63391</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,54 +2802,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>32964</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>40320</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>62</v>
-      </c>
       <c r="I12" s="7">
-        <v>41024</v>
+        <v>35994</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>81344</v>
+        <v>68958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3095,97 +2858,97 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1902</v>
+        <v>2153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>3664</v>
+        <v>887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>5567</v>
+        <v>3040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
         <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>34092</v>
+        <v>39633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>29300</v>
+        <v>46342</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N14" s="7">
-        <v>63391</v>
+        <v>85975</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,150 +2960,150 @@
         <v>56</v>
       </c>
       <c r="D15" s="7">
-        <v>35994</v>
+        <v>41786</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I15" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N15" s="7">
-        <v>68958</v>
+        <v>89015</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
-        <v>887</v>
+        <v>6564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>2153</v>
+        <v>6070</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>3040</v>
+        <v>12634</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="D17" s="7">
-        <v>46342</v>
+        <v>140657</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>214</v>
       </c>
       <c r="I17" s="7">
-        <v>39633</v>
+        <v>151896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="M17" s="7">
-        <v>115</v>
+        <v>416</v>
       </c>
       <c r="N17" s="7">
-        <v>85975</v>
+        <v>292553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3349,217 +3112,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>47229</v>
+        <v>147221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="I18" s="7">
-        <v>41786</v>
+        <v>157966</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>119</v>
+        <v>434</v>
       </c>
       <c r="N18" s="7">
-        <v>89015</v>
+        <v>305187</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6070</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="7">
-        <v>10</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6564</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M19" s="7">
-        <v>18</v>
-      </c>
-      <c r="N19" s="7">
-        <v>12634</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>214</v>
-      </c>
-      <c r="D20" s="7">
-        <v>151896</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="7">
-        <v>202</v>
-      </c>
-      <c r="I20" s="7">
-        <v>140657</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M20" s="7">
-        <v>416</v>
-      </c>
-      <c r="N20" s="7">
-        <v>292553</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>222</v>
-      </c>
-      <c r="D21" s="7">
-        <v>157966</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>212</v>
-      </c>
-      <c r="I21" s="7">
-        <v>147221</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>434</v>
-      </c>
-      <c r="N21" s="7">
-        <v>305187</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3572,8 +3179,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7589A8-7035-45FA-8911-CE14DA575B36}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06CD5AD-DA90-48B1-8E60-A9693F012104}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3589,7 +3196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3696,94 +3303,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>6479</v>
+        <v>23499</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N5" s="7">
-        <v>9989</v>
+        <v>47859</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,153 +3399,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N6" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>677</v>
+        <v>1410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D8" s="7">
-        <v>19990</v>
+        <v>42699</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>202</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I8" s="7">
-        <v>17880</v>
+        <v>39737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="N8" s="7">
-        <v>37870</v>
+        <v>82436</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3947,153 +3554,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I9" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N9" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1675</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
-        <v>1410</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>1410</v>
+        <v>3154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7">
-        <v>39737</v>
+        <v>25940</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>42699</v>
+        <v>26327</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7">
-        <v>82436</v>
+        <v>52267</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,153 +3709,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N12" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1479</v>
+        <v>705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>1675</v>
+        <v>2644</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>3154</v>
+        <v>3349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>26327</v>
+        <v>32083</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="7">
+        <v>38</v>
+      </c>
+      <c r="I14" s="7">
+        <v>27502</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="M14" s="7">
+        <v>81</v>
+      </c>
+      <c r="N14" s="7">
+        <v>59585</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25940</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M14" s="7">
-        <v>85</v>
-      </c>
-      <c r="N14" s="7">
-        <v>52267</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,51 +3867,51 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4313,97 +3920,97 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2644</v>
+        <v>2380</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="7">
+        <v>9</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6210</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" s="7">
+        <v>13</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8590</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>705</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="7">
-        <v>5</v>
-      </c>
-      <c r="N16" s="7">
-        <v>3349</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="D17" s="7">
-        <v>27502</v>
+        <v>125081</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="7">
+        <v>170</v>
+      </c>
+      <c r="I17" s="7">
+        <v>117066</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>358</v>
+      </c>
+      <c r="N17" s="7">
+        <v>242147</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="H17" s="7">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7">
-        <v>32083</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="7">
-        <v>81</v>
-      </c>
-      <c r="N17" s="7">
-        <v>59585</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,217 +4019,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D18" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I18" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N18" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6210</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2380</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M19" s="7">
-        <v>13</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8590</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>170</v>
-      </c>
-      <c r="D20" s="7">
-        <v>117066</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H20" s="7">
-        <v>188</v>
-      </c>
-      <c r="I20" s="7">
-        <v>125081</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M20" s="7">
-        <v>358</v>
-      </c>
-      <c r="N20" s="7">
-        <v>242147</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>192</v>
-      </c>
-      <c r="I21" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>371</v>
-      </c>
-      <c r="N21" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4635,8 +4086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9609962-0B1A-4DBD-9B0F-5AE0D8140370}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0680999-A33F-481F-8369-B429B44A9C4D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4652,7 +4103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4759,94 +4210,94 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1117</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>6212</v>
+        <v>26543</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>10378</v>
+        <v>52384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,54 +4306,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I6" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N6" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -4911,97 +4362,97 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2849</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>922</v>
+        <v>3789</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>20682</v>
+        <v>43301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I8" s="7">
-        <v>19323</v>
+        <v>60960</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>40005</v>
+        <v>104262</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,153 +4461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>19323</v>
+        <v>63809</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N9" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2737</v>
+        <v>1188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>828</v>
+        <v>868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>3564</v>
+        <v>2056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D11" s="7">
-        <v>58108</v>
+        <v>75883</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="H11" s="7">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>39345</v>
+        <v>56055</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N11" s="7">
-        <v>97454</v>
+        <v>131938</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5165,54 +4616,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I12" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5221,97 +4672,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>858</v>
+        <v>768</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1214</v>
+        <v>1247</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2071</v>
+        <v>2015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>52636</v>
+        <v>29793</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>56681</v>
+        <v>32562</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>109317</v>
+        <v>62355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,153 +4771,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>53494</v>
+        <v>30561</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N15" s="7">
-        <v>111388</v>
+        <v>64370</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1198</v>
+        <v>2896</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>783</v>
+        <v>6081</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>1981</v>
+        <v>8977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="D17" s="7">
-        <v>31229</v>
+        <v>174819</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="I17" s="7">
-        <v>30026</v>
+        <v>176120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>463</v>
       </c>
       <c r="N17" s="7">
-        <v>61256</v>
+        <v>350939</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5475,217 +4926,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I18" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>63237</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5715</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2825</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M19" s="7">
-        <v>13</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8539</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>241</v>
-      </c>
-      <c r="D20" s="7">
-        <v>166822</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H20" s="7">
-        <v>222</v>
-      </c>
-      <c r="I20" s="7">
-        <v>151587</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>463</v>
-      </c>
-      <c r="N20" s="7">
-        <v>318409</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>250</v>
-      </c>
-      <c r="D21" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>226</v>
-      </c>
-      <c r="I21" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>476</v>
-      </c>
-      <c r="N21" s="7">
-        <v>326948</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>108</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
